--- a/Данные сортировок.xlsx
+++ b/Данные сортировок.xlsx
@@ -21,9 +21,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Время работы(сек)</t>
-  </si>
-  <si>
     <t>Кол-во перестановок</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>2.4754e+11</t>
+  </si>
+  <si>
+    <t>Кол-во слияний</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +430,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -463,7 +463,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>17</v>
@@ -501,16 +501,16 @@
         <v>24964487</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -543,25 +543,49 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1">
+        <v>999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>99999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Данные сортировок.xlsx
+++ b/Данные сортировок.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,13 +466,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>53</v>
